--- a/Coaches_carreers/Coaches/Thomas Tuchel.xlsx
+++ b/Coaches_carreers/Coaches/Thomas Tuchel.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE340"/>
+  <dimension ref="A1:AF340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,11 @@
           <t>ProbA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -694,6 +699,11 @@
       <c r="AE2" t="n">
         <v>0.4809081527347781</v>
       </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -795,6 +805,11 @@
       <c r="AE3" t="n">
         <v>0.2099104637627335</v>
       </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -896,6 +911,11 @@
       <c r="AE4" t="n">
         <v>0.6716949546048853</v>
       </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -996,6 +1016,11 @@
       </c>
       <c r="AE5" t="n">
         <v>0.2464052287581699</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1098,6 +1123,11 @@
       <c r="AE6" t="n">
         <v>0.3355311355311356</v>
       </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1199,6 +1229,11 @@
       <c r="AE7" t="n">
         <v>0.2726423902894491</v>
       </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1300,6 +1335,11 @@
       <c r="AE8" t="n">
         <v>0.09649122807017549</v>
       </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1401,6 +1441,11 @@
       <c r="AE9" t="n">
         <v>0.5177677677677677</v>
       </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1502,6 +1547,11 @@
       <c r="AE10" t="n">
         <v>0.2853835630853415</v>
       </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1603,6 +1653,11 @@
       <c r="AE11" t="n">
         <v>0.2726423902894491</v>
       </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1704,6 +1759,11 @@
       <c r="AE12" t="n">
         <v>0.1201076530175837</v>
       </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1805,6 +1865,11 @@
       <c r="AE13" t="n">
         <v>0.2726423902894491</v>
       </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1906,6 +1971,11 @@
       <c r="AE14" t="n">
         <v>0.1781769793745842</v>
       </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2007,6 +2077,11 @@
       <c r="AE15" t="n">
         <v>0.4013241660300484</v>
       </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2108,6 +2183,11 @@
       <c r="AE16" t="n">
         <v>0.2812742812742813</v>
       </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2209,6 +2289,11 @@
       <c r="AE17" t="n">
         <v>0.3681318681318681</v>
       </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2310,6 +2395,11 @@
       <c r="AE18" t="n">
         <v>0.1113756613756614</v>
       </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2411,6 +2501,11 @@
       <c r="AE19" t="n">
         <v>0.09668717371475148</v>
       </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2511,6 +2606,11 @@
       </c>
       <c r="AE20" t="n">
         <v>0.2488076311605723</v>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2613,6 +2713,11 @@
       <c r="AE21" t="n">
         <v>0.04871794871794871</v>
       </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2714,6 +2819,11 @@
       <c r="AE22" t="n">
         <v>0.2822755599773384</v>
       </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2815,6 +2925,11 @@
       <c r="AE23" t="n">
         <v>0.2464052287581699</v>
       </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2915,6 +3030,11 @@
       </c>
       <c r="AE24" t="n">
         <v>0.2464052287581699</v>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3017,6 +3137,11 @@
       <c r="AE25" t="n">
         <v>0.5254116689773374</v>
       </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3118,6 +3243,11 @@
       <c r="AE26" t="n">
         <v>0.1884133905734149</v>
       </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3219,6 +3349,11 @@
       <c r="AE27" t="n">
         <v>0.264069264069264</v>
       </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3320,6 +3455,11 @@
       <c r="AE28" t="n">
         <v>0.3249158249158249</v>
       </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3421,6 +3561,11 @@
       <c r="AE29" t="n">
         <v>0.3777777777777777</v>
       </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3521,6 +3666,11 @@
       </c>
       <c r="AE30" t="n">
         <v>0.2464052287581699</v>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3623,6 +3773,11 @@
       <c r="AE31" t="n">
         <v>0.5064475470234633</v>
       </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3724,6 +3879,11 @@
       <c r="AE32" t="n">
         <v>0.1113756613756614</v>
       </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3825,6 +3985,11 @@
       <c r="AE33" t="n">
         <v>0.2861467236467237</v>
       </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3926,6 +4091,11 @@
       <c r="AE34" t="n">
         <v>0.09011417432470065</v>
       </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4027,6 +4197,11 @@
       <c r="AE35" t="n">
         <v>0.3996654217242452</v>
       </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4128,6 +4303,11 @@
       <c r="AE36" t="n">
         <v>0.424063532222925</v>
       </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4229,6 +4409,11 @@
       <c r="AE37" t="n">
         <v>0.1588978961590427</v>
       </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4330,6 +4515,11 @@
       <c r="AE38" t="n">
         <v>0.2859362859362859</v>
       </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4431,6 +4621,11 @@
       <c r="AE39" t="n">
         <v>0.1201076530175837</v>
       </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4532,6 +4727,11 @@
       <c r="AE40" t="n">
         <v>0.2274407145056976</v>
       </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4633,6 +4833,11 @@
       <c r="AE41" t="n">
         <v>0.1201076530175837</v>
       </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4734,6 +4939,11 @@
       <c r="AE42" t="n">
         <v>0.2828282828282829</v>
       </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4835,6 +5045,11 @@
       <c r="AE43" t="n">
         <v>0.3021997329397709</v>
       </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4936,6 +5151,11 @@
       <c r="AE44" t="n">
         <v>0.217989417989418</v>
       </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5037,6 +5257,11 @@
       <c r="AE45" t="n">
         <v>0.3777777777777777</v>
       </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5138,6 +5363,11 @@
       <c r="AE46" t="n">
         <v>0.3951584813653779</v>
       </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5239,6 +5469,11 @@
       <c r="AE47" t="n">
         <v>0.1787503440682632</v>
       </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5340,6 +5575,11 @@
       <c r="AE48" t="n">
         <v>0.3345004668534081</v>
       </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5441,6 +5681,11 @@
       <c r="AE49" t="n">
         <v>0.2090785256116054</v>
       </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5542,6 +5787,11 @@
       <c r="AE50" t="n">
         <v>0.2737299465240641</v>
       </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5643,6 +5893,11 @@
       <c r="AE51" t="n">
         <v>0.3414141414141413</v>
       </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5744,6 +5999,11 @@
       <c r="AE52" t="n">
         <v>0.3433857808857809</v>
       </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5845,6 +6105,11 @@
       <c r="AE53" t="n">
         <v>0.239792543198116</v>
       </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5946,6 +6211,11 @@
       <c r="AE54" t="n">
         <v>0.3008954579782069</v>
       </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6047,6 +6317,11 @@
       <c r="AE55" t="n">
         <v>0.2859362859362859</v>
       </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6148,6 +6423,11 @@
       <c r="AE56" t="n">
         <v>0.3345004668534081</v>
       </c>
+      <c r="AF56" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6249,6 +6529,11 @@
       <c r="AE57" t="n">
         <v>0.3233194009056078</v>
       </c>
+      <c r="AF57" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6350,6 +6635,11 @@
       <c r="AE58" t="n">
         <v>0.5948559670781892</v>
       </c>
+      <c r="AF58" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6450,6 +6740,11 @@
       </c>
       <c r="AE59" t="n">
         <v>0.2464052287581699</v>
+      </c>
+      <c r="AF59" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -6552,6 +6847,11 @@
       <c r="AE60" t="n">
         <v>0.2274407145056976</v>
       </c>
+      <c r="AF60" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6653,6 +6953,11 @@
       <c r="AE61" t="n">
         <v>0.4327894327894328</v>
       </c>
+      <c r="AF61" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6754,6 +7059,11 @@
       <c r="AE62" t="n">
         <v>0.09668717371475148</v>
       </c>
+      <c r="AF62" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6855,6 +7165,11 @@
       <c r="AE63" t="n">
         <v>0.2272272272272272</v>
       </c>
+      <c r="AF63" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6956,6 +7271,11 @@
       <c r="AE64" t="n">
         <v>0.2859362859362859</v>
       </c>
+      <c r="AF64" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7057,6 +7377,11 @@
       <c r="AE65" t="n">
         <v>0.2439984487104906</v>
       </c>
+      <c r="AF65" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7158,6 +7483,11 @@
       <c r="AE66" t="n">
         <v>0.2726423902894491</v>
       </c>
+      <c r="AF66" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7258,6 +7588,11 @@
       </c>
       <c r="AE67" t="n">
         <v>0.2464052287581699</v>
+      </c>
+      <c r="AF67" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -7360,6 +7695,11 @@
       <c r="AE68" t="n">
         <v>0.3129354305824894</v>
       </c>
+      <c r="AF68" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7461,6 +7801,11 @@
       <c r="AE69" t="n">
         <v>0.1104575163398693</v>
       </c>
+      <c r="AF69" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7562,6 +7907,11 @@
       <c r="AE70" t="n">
         <v>0.4922562817299659</v>
       </c>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7663,6 +8013,11 @@
       <c r="AE71" t="n">
         <v>0.312588803637397</v>
       </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7764,6 +8119,11 @@
       <c r="AE72" t="n">
         <v>0.3414141414141413</v>
       </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7865,6 +8225,11 @@
       <c r="AE73" t="n">
         <v>0.312588803637397</v>
       </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7966,6 +8331,11 @@
       <c r="AE74" t="n">
         <v>0.2859362859362859</v>
       </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8067,6 +8437,11 @@
       <c r="AE75" t="n">
         <v>0.348874364560639</v>
       </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8168,6 +8543,11 @@
       <c r="AE76" t="n">
         <v>0.5008919914679076</v>
       </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8269,6 +8649,11 @@
       <c r="AE77" t="n">
         <v>0.2625152625152625</v>
       </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8370,6 +8755,11 @@
       <c r="AE78" t="n">
         <v>0.1781769793745842</v>
       </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8471,6 +8861,11 @@
       <c r="AE79" t="n">
         <v>0.2449328449328449</v>
       </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8572,6 +8967,11 @@
       <c r="AE80" t="n">
         <v>0.3785039941902687</v>
       </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8673,6 +9073,11 @@
       <c r="AE81" t="n">
         <v>0.348874364560639</v>
       </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8774,6 +9179,11 @@
       <c r="AE82" t="n">
         <v>0.7308827624617098</v>
       </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8875,6 +9285,11 @@
       <c r="AE83" t="n">
         <v>0.3267195767195767</v>
       </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8976,6 +9391,11 @@
       <c r="AE84" t="n">
         <v>0.2921122994652407</v>
       </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9077,6 +9497,11 @@
       <c r="AE85" t="n">
         <v>0.348874364560639</v>
       </c>
+      <c r="AF85" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9178,6 +9603,11 @@
       <c r="AE86" t="n">
         <v>0.2099104637627335</v>
       </c>
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9279,6 +9709,11 @@
       <c r="AE87" t="n">
         <v>0.201058201058201</v>
       </c>
+      <c r="AF87" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9380,6 +9815,11 @@
       <c r="AE88" t="n">
         <v>0.1781769793745842</v>
       </c>
+      <c r="AF88" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9481,6 +9921,11 @@
       <c r="AE89" t="n">
         <v>0.1999143652322843</v>
       </c>
+      <c r="AF89" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9582,6 +10027,11 @@
       <c r="AE90" t="n">
         <v>0.2274407145056976</v>
       </c>
+      <c r="AF90" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9683,6 +10133,11 @@
       <c r="AE91" t="n">
         <v>0.3233194009056078</v>
       </c>
+      <c r="AF91" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9784,6 +10239,11 @@
       <c r="AE92" t="n">
         <v>0.1884133905734149</v>
       </c>
+      <c r="AF92" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9885,6 +10345,11 @@
       <c r="AE93" t="n">
         <v>0.07086247086247092</v>
       </c>
+      <c r="AF93" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9986,6 +10451,11 @@
       <c r="AE94" t="n">
         <v>0.2274407145056976</v>
       </c>
+      <c r="AF94" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10087,6 +10557,11 @@
       <c r="AE95" t="n">
         <v>0.3951584813653779</v>
       </c>
+      <c r="AF95" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10188,6 +10663,11 @@
       <c r="AE96" t="n">
         <v>0.1787503440682632</v>
       </c>
+      <c r="AF96" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10289,6 +10769,11 @@
       <c r="AE97" t="n">
         <v>0.2726423902894491</v>
       </c>
+      <c r="AF97" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10390,6 +10875,11 @@
       <c r="AE98" t="n">
         <v>0.2578776768159838</v>
       </c>
+      <c r="AF98" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10491,6 +10981,11 @@
       <c r="AE99" t="n">
         <v>0.1588978961590427</v>
       </c>
+      <c r="AF99" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10592,6 +11087,11 @@
       <c r="AE100" t="n">
         <v>0.06887479445618984</v>
       </c>
+      <c r="AF100" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10693,6 +11193,11 @@
       <c r="AE101" t="n">
         <v>0.2439984487104906</v>
       </c>
+      <c r="AF101" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10794,6 +11299,11 @@
       <c r="AE102" t="n">
         <v>0.2726423902894491</v>
       </c>
+      <c r="AF102" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10895,6 +11405,11 @@
       <c r="AE103" t="n">
         <v>0.312588803637397</v>
       </c>
+      <c r="AF103" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10996,6 +11511,11 @@
       <c r="AE104" t="n">
         <v>0.3414141414141413</v>
       </c>
+      <c r="AF104" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11097,6 +11617,11 @@
       <c r="AE105" t="n">
         <v>0.201058201058201</v>
       </c>
+      <c r="AF105" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11198,6 +11723,11 @@
       <c r="AE106" t="n">
         <v>0.04525844525844526</v>
       </c>
+      <c r="AF106" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11299,6 +11829,11 @@
       <c r="AE107" t="n">
         <v>0.1884133905734149</v>
       </c>
+      <c r="AF107" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11400,6 +11935,11 @@
       <c r="AE108" t="n">
         <v>0.1444109211457518</v>
       </c>
+      <c r="AF108" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11501,6 +12041,11 @@
       <c r="AE109" t="n">
         <v>0.2726423902894491</v>
       </c>
+      <c r="AF109" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11602,6 +12147,11 @@
       <c r="AE110" t="n">
         <v>0.2099104637627335</v>
       </c>
+      <c r="AF110" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11703,6 +12253,11 @@
       <c r="AE111" t="n">
         <v>0.1793465700178591</v>
       </c>
+      <c r="AF111" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11804,6 +12359,11 @@
       <c r="AE112" t="n">
         <v>0.2566137566137566</v>
       </c>
+      <c r="AF112" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11904,6 +12464,11 @@
       </c>
       <c r="AE113" t="n">
         <v>0.2566137566137566</v>
+      </c>
+      <c r="AF113" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
       </c>
     </row>
     <row r="114">
@@ -12006,6 +12571,11 @@
       <c r="AE114" t="n">
         <v>0.201058201058201</v>
       </c>
+      <c r="AF114" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12107,6 +12677,11 @@
       <c r="AE115" t="n">
         <v>0.3345004668534081</v>
       </c>
+      <c r="AF115" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12208,6 +12783,11 @@
       <c r="AE116" t="n">
         <v>0.5953610175832398</v>
       </c>
+      <c r="AF116" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12309,6 +12889,11 @@
       <c r="AE117" t="n">
         <v>0.2726423902894491</v>
       </c>
+      <c r="AF117" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12409,6 +12994,11 @@
       </c>
       <c r="AE118" t="n">
         <v>0.2566137566137566</v>
+      </c>
+      <c r="AF118" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
       </c>
     </row>
     <row r="119">
@@ -12511,6 +13101,11 @@
       <c r="AE119" t="n">
         <v>0.3233194009056078</v>
       </c>
+      <c r="AF119" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12612,6 +13207,11 @@
       <c r="AE120" t="n">
         <v>0.3021997329397709</v>
       </c>
+      <c r="AF120" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12713,6 +13313,11 @@
       <c r="AE121" t="n">
         <v>0.2812742812742813</v>
       </c>
+      <c r="AF121" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12814,6 +13419,11 @@
       <c r="AE122" t="n">
         <v>0.4146514230665704</v>
       </c>
+      <c r="AF122" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12915,6 +13525,11 @@
       <c r="AE123" t="n">
         <v>0.6937830687830688</v>
       </c>
+      <c r="AF123" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13016,6 +13631,11 @@
       <c r="AE124" t="n">
         <v>0.3433857808857809</v>
       </c>
+      <c r="AF124" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13117,6 +13737,11 @@
       <c r="AE125" t="n">
         <v>0.3021997329397709</v>
       </c>
+      <c r="AF125" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13217,6 +13842,11 @@
       </c>
       <c r="AE126" t="n">
         <v>0.2464052287581699</v>
+      </c>
+      <c r="AF126" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
       </c>
     </row>
     <row r="127">
@@ -13319,6 +13949,11 @@
       <c r="AE127" t="n">
         <v>0.3958333333333334</v>
       </c>
+      <c r="AF127" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13420,6 +14055,11 @@
       <c r="AE128" t="n">
         <v>0.4146514230665704</v>
       </c>
+      <c r="AF128" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13521,6 +14161,11 @@
       <c r="AE129" t="n">
         <v>0.337085137085137</v>
       </c>
+      <c r="AF129" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13622,6 +14267,11 @@
       <c r="AE130" t="n">
         <v>0.2659698025551683</v>
       </c>
+      <c r="AF130" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -13723,6 +14373,11 @@
       <c r="AE131" t="n">
         <v>0.3125</v>
       </c>
+      <c r="AF131" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -13824,6 +14479,11 @@
       <c r="AE132" t="n">
         <v>0.2578776768159838</v>
       </c>
+      <c r="AF132" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -13925,6 +14585,11 @@
       <c r="AE133" t="n">
         <v>0.1303418803418804</v>
       </c>
+      <c r="AF133" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14026,6 +14691,11 @@
       <c r="AE134" t="n">
         <v>0.2631686821069891</v>
       </c>
+      <c r="AF134" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14127,6 +14797,11 @@
       <c r="AE135" t="n">
         <v>0.3251231527093597</v>
       </c>
+      <c r="AF135" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14228,6 +14903,11 @@
       <c r="AE136" t="n">
         <v>0.2828282828282829</v>
       </c>
+      <c r="AF136" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -14329,6 +15009,11 @@
       <c r="AE137" t="n">
         <v>0.2801593167446826</v>
       </c>
+      <c r="AF137" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -14430,6 +15115,11 @@
       <c r="AE138" t="n">
         <v>0.3345004668534081</v>
       </c>
+      <c r="AF138" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -14531,6 +15221,11 @@
       <c r="AE139" t="n">
         <v>0.3021997329397709</v>
       </c>
+      <c r="AF139" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14632,6 +15327,11 @@
       <c r="AE140" t="n">
         <v>0.3649616617632721</v>
       </c>
+      <c r="AF140" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -14733,6 +15433,11 @@
       <c r="AE141" t="n">
         <v>0.3416305916305917</v>
       </c>
+      <c r="AF141" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -14834,6 +15539,11 @@
       <c r="AE142" t="n">
         <v>0.363499245852187</v>
       </c>
+      <c r="AF142" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -14935,6 +15645,11 @@
       <c r="AE143" t="n">
         <v>0.4680603948896632</v>
       </c>
+      <c r="AF143" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15035,6 +15750,11 @@
       </c>
       <c r="AE144" t="n">
         <v>0.2645502645502645</v>
+      </c>
+      <c r="AF144" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
       </c>
     </row>
     <row r="145">
@@ -15137,6 +15857,11 @@
       <c r="AE145" t="n">
         <v>0.3121693121693122</v>
       </c>
+      <c r="AF145" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -15238,6 +15963,11 @@
       <c r="AE146" t="n">
         <v>0.02225150051237012</v>
       </c>
+      <c r="AF146" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -15339,6 +16069,11 @@
       <c r="AE147" t="n">
         <v>0.1667024222562517</v>
       </c>
+      <c r="AF147" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -15439,6 +16174,11 @@
       </c>
       <c r="AE148" t="n">
         <v>0.2566137566137566</v>
+      </c>
+      <c r="AF148" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
       </c>
     </row>
     <row r="149">
@@ -15541,6 +16281,11 @@
       <c r="AE149" t="n">
         <v>0.3304713804713804</v>
       </c>
+      <c r="AF149" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -15642,6 +16387,11 @@
       <c r="AE150" t="n">
         <v>0.3267195767195767</v>
       </c>
+      <c r="AF150" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -15743,6 +16493,11 @@
       <c r="AE151" t="n">
         <v>0.6143128227004604</v>
       </c>
+      <c r="AF151" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -15844,6 +16599,11 @@
       <c r="AE152" t="n">
         <v>0.3433857808857809</v>
       </c>
+      <c r="AF152" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -15945,6 +16705,11 @@
       <c r="AE153" t="n">
         <v>0.3777777777777777</v>
       </c>
+      <c r="AF153" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -16046,6 +16811,11 @@
       <c r="AE154" t="n">
         <v>0.2813852813852814</v>
       </c>
+      <c r="AF154" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -16147,6 +16917,11 @@
       <c r="AE155" t="n">
         <v>0.2631686821069891</v>
       </c>
+      <c r="AF155" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -16248,6 +17023,11 @@
       <c r="AE156" t="n">
         <v>0.2021164021164022</v>
       </c>
+      <c r="AF156" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -16349,6 +17129,11 @@
       <c r="AE157" t="n">
         <v>0.2095201437002823</v>
       </c>
+      <c r="AF157" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -16450,6 +17235,11 @@
       <c r="AE158" t="n">
         <v>0.2302418349538768</v>
       </c>
+      <c r="AF158" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -16551,6 +17341,11 @@
       <c r="AE159" t="n">
         <v>0.1951920864964344</v>
       </c>
+      <c r="AF159" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -16652,6 +17447,11 @@
       <c r="AE160" t="n">
         <v>0.2091024327562555</v>
       </c>
+      <c r="AF160" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -16753,6 +17553,11 @@
       <c r="AE161" t="n">
         <v>0.2737299465240641</v>
       </c>
+      <c r="AF161" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -16854,6 +17659,11 @@
       <c r="AE162" t="n">
         <v>0.3016338500209468</v>
       </c>
+      <c r="AF162" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -16955,6 +17765,11 @@
       <c r="AE163" t="n">
         <v>0.7981963391799457</v>
       </c>
+      <c r="AF163" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -17056,6 +17871,11 @@
       <c r="AE164" t="n">
         <v>0.4547152194211018</v>
       </c>
+      <c r="AF164" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -17157,6 +17977,11 @@
       <c r="AE165" t="n">
         <v>0.3129354305824894</v>
       </c>
+      <c r="AF165" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -17258,6 +18083,11 @@
       <c r="AE166" t="n">
         <v>0.337085137085137</v>
       </c>
+      <c r="AF166" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -17359,6 +18189,11 @@
       <c r="AE167" t="n">
         <v>0.2095201437002823</v>
       </c>
+      <c r="AF167" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -17460,6 +18295,11 @@
       <c r="AE168" t="n">
         <v>0.1104575163398693</v>
       </c>
+      <c r="AF168" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17561,6 +18401,11 @@
       <c r="AE169" t="n">
         <v>0.171222810111699</v>
       </c>
+      <c r="AF169" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -17662,6 +18507,11 @@
       <c r="AE170" t="n">
         <v>0.2408724513987672</v>
       </c>
+      <c r="AF170" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -17763,6 +18613,11 @@
       <c r="AE171" t="n">
         <v>0.2456284153005465</v>
       </c>
+      <c r="AF171" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -17864,6 +18719,11 @@
       <c r="AE172" t="n">
         <v>0.1850995504174695</v>
       </c>
+      <c r="AF172" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -17965,6 +18825,11 @@
       <c r="AE173" t="n">
         <v>0.6714103265827404</v>
       </c>
+      <c r="AF173" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -18066,6 +18931,11 @@
       <c r="AE174" t="n">
         <v>0.04348919054801405</v>
       </c>
+      <c r="AF174" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -18167,6 +19037,11 @@
       <c r="AE175" t="n">
         <v>0.6777777777777778</v>
       </c>
+      <c r="AF175" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -18268,6 +19143,11 @@
       <c r="AE176" t="n">
         <v>0.2054699207878398</v>
       </c>
+      <c r="AF176" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -18369,6 +19249,11 @@
       <c r="AE177" t="n">
         <v>0.6785018100807575</v>
       </c>
+      <c r="AF177" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -18470,6 +19355,11 @@
       <c r="AE178" t="n">
         <v>0.04093567251461985</v>
       </c>
+      <c r="AF178" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -18571,6 +19461,11 @@
       <c r="AE179" t="n">
         <v>0.1366929196028503</v>
       </c>
+      <c r="AF179" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -18672,6 +19567,11 @@
       <c r="AE180" t="n">
         <v>0.6496313246885329</v>
       </c>
+      <c r="AF180" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -18773,6 +19673,11 @@
       <c r="AE181" t="n">
         <v>0.05921855921855922</v>
       </c>
+      <c r="AF181" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -18874,6 +19779,11 @@
       <c r="AE182" t="n">
         <v>0.6984126984126984</v>
       </c>
+      <c r="AF182" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -18975,6 +19885,11 @@
       <c r="AE183" t="n">
         <v>0.09979889391654104</v>
       </c>
+      <c r="AF183" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -19076,6 +19991,11 @@
       <c r="AE184" t="n">
         <v>0.7176470588235294</v>
       </c>
+      <c r="AF184" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -19177,6 +20097,11 @@
       <c r="AE185" t="n">
         <v>0.06666666666666665</v>
       </c>
+      <c r="AF185" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -19278,6 +20203,11 @@
       <c r="AE186" t="n">
         <v>0.5539700868800176</v>
       </c>
+      <c r="AF186" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -19379,6 +20309,11 @@
       <c r="AE187" t="n">
         <v>0.05121082621082619</v>
       </c>
+      <c r="AF187" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -19480,6 +20415,11 @@
       <c r="AE188" t="n">
         <v>0.6785018100807575</v>
       </c>
+      <c r="AF188" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -19581,6 +20521,11 @@
       <c r="AE189" t="n">
         <v>0.572051042639278</v>
       </c>
+      <c r="AF189" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -19682,6 +20627,11 @@
       <c r="AE190" t="n">
         <v>0.03590172011224645</v>
       </c>
+      <c r="AF190" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -19783,6 +20733,11 @@
       <c r="AE191" t="n">
         <v>0.6495134324233631</v>
       </c>
+      <c r="AF191" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -19884,6 +20839,11 @@
       <c r="AE192" t="n">
         <v>0.04093567251461985</v>
       </c>
+      <c r="AF192" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -19985,6 +20945,11 @@
       <c r="AE193" t="n">
         <v>0.4575163398692811</v>
       </c>
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -20086,6 +21051,11 @@
       <c r="AE194" t="n">
         <v>0.04244409628258078</v>
       </c>
+      <c r="AF194" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -20187,6 +21157,11 @@
       <c r="AE195" t="n">
         <v>0.6976817042606517</v>
       </c>
+      <c r="AF195" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -20288,6 +21263,11 @@
       <c r="AE196" t="n">
         <v>0.4176223083903968</v>
       </c>
+      <c r="AF196" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -20389,6 +21369,11 @@
       <c r="AE197" t="n">
         <v>0.09999999999999999</v>
       </c>
+      <c r="AF197" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -20490,6 +21475,11 @@
       <c r="AE198" t="n">
         <v>0.6495134324233631</v>
       </c>
+      <c r="AF198" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -20591,6 +21581,11 @@
       <c r="AE199" t="n">
         <v>0.05921855921855922</v>
       </c>
+      <c r="AF199" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -20692,6 +21687,11 @@
       <c r="AE200" t="n">
         <v>0.5559913753555372</v>
       </c>
+      <c r="AF200" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -20793,6 +21793,11 @@
       <c r="AE201" t="n">
         <v>0.09328877749930381</v>
       </c>
+      <c r="AF201" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -20894,6 +21899,11 @@
       <c r="AE202" t="n">
         <v>0.5878332194121668</v>
       </c>
+      <c r="AF202" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -20995,6 +22005,11 @@
       <c r="AE203" t="n">
         <v>0.09999999999999999</v>
       </c>
+      <c r="AF203" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -21096,6 +22111,11 @@
       <c r="AE204" t="n">
         <v>0.6753089620603233</v>
       </c>
+      <c r="AF204" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -21197,6 +22217,11 @@
       <c r="AE205" t="n">
         <v>0.1002977193573756</v>
       </c>
+      <c r="AF205" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -21298,6 +22323,11 @@
       <c r="AE206" t="n">
         <v>0.09999999999999999</v>
       </c>
+      <c r="AF206" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -21399,6 +22429,11 @@
       <c r="AE207" t="n">
         <v>0.6019988242210464</v>
       </c>
+      <c r="AF207" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -21500,6 +22535,11 @@
       <c r="AE208" t="n">
         <v>0.03305707730486487</v>
       </c>
+      <c r="AF208" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -21601,6 +22641,11 @@
       <c r="AE209" t="n">
         <v>0.5552213868003342</v>
       </c>
+      <c r="AF209" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -21702,6 +22747,11 @@
       <c r="AE210" t="n">
         <v>0.05084745762711859</v>
       </c>
+      <c r="AF210" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -21803,6 +22853,11 @@
       <c r="AE211" t="n">
         <v>0.4949017843754686</v>
       </c>
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -21904,6 +22959,11 @@
       <c r="AE212" t="n">
         <v>0.09328877749930381</v>
       </c>
+      <c r="AF212" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -22005,6 +23065,11 @@
       <c r="AE213" t="n">
         <v>0.6341425459072518</v>
       </c>
+      <c r="AF213" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -22106,6 +23171,11 @@
       <c r="AE214" t="n">
         <v>0.1652489354200126</v>
       </c>
+      <c r="AF214" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -22207,6 +23277,11 @@
       <c r="AE215" t="n">
         <v>0.6730054090601758</v>
       </c>
+      <c r="AF215" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -22308,6 +23383,11 @@
       <c r="AE216" t="n">
         <v>0.4601618425147837</v>
       </c>
+      <c r="AF216" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -22409,6 +23489,11 @@
       <c r="AE217" t="n">
         <v>0.5878332194121668</v>
       </c>
+      <c r="AF217" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -22510,6 +23595,11 @@
       <c r="AE218" t="n">
         <v>0.1396011396011397</v>
       </c>
+      <c r="AF218" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -22611,6 +23701,11 @@
       <c r="AE219" t="n">
         <v>0.6203734287610665</v>
       </c>
+      <c r="AF219" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -22712,6 +23807,11 @@
       <c r="AE220" t="n">
         <v>0.5226410621147464</v>
       </c>
+      <c r="AF220" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -22813,6 +23913,11 @@
       <c r="AE221" t="n">
         <v>0.08298368298368296</v>
       </c>
+      <c r="AF221" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -22914,6 +24019,11 @@
       <c r="AE222" t="n">
         <v>0.6365253311999678</v>
       </c>
+      <c r="AF222" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -23015,6 +24125,11 @@
       <c r="AE223" t="n">
         <v>0.6019988242210464</v>
       </c>
+      <c r="AF223" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -23116,6 +24231,11 @@
       <c r="AE224" t="n">
         <v>0.1729973636686527</v>
       </c>
+      <c r="AF224" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -23217,6 +24337,11 @@
       <c r="AE225" t="n">
         <v>0.7198257080610022</v>
       </c>
+      <c r="AF225" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -23318,6 +24443,11 @@
       <c r="AE226" t="n">
         <v>0.1166666666666667</v>
       </c>
+      <c r="AF226" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -23419,6 +24549,11 @@
       <c r="AE227" t="n">
         <v>0.6206256895816574</v>
       </c>
+      <c r="AF227" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -23520,6 +24655,11 @@
       <c r="AE228" t="n">
         <v>0.1366929196028503</v>
       </c>
+      <c r="AF228" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -23621,6 +24761,11 @@
       <c r="AE229" t="n">
         <v>0.5905483405483405</v>
       </c>
+      <c r="AF229" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -23722,6 +24867,11 @@
       <c r="AE230" t="n">
         <v>0.07980907980907985</v>
       </c>
+      <c r="AF230" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -23823,6 +24973,11 @@
       <c r="AE231" t="n">
         <v>0.4851851851851852</v>
       </c>
+      <c r="AF231" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -23924,6 +25079,11 @@
       <c r="AE232" t="n">
         <v>0.0836310526907089</v>
       </c>
+      <c r="AF232" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -24025,6 +25185,11 @@
       <c r="AE233" t="n">
         <v>0.1654508043396933</v>
       </c>
+      <c r="AF233" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -24126,6 +25291,11 @@
       <c r="AE234" t="n">
         <v>0.1201076530175837</v>
       </c>
+      <c r="AF234" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -24227,6 +25397,11 @@
       <c r="AE235" t="n">
         <v>0.4732084000376684</v>
       </c>
+      <c r="AF235" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -24328,6 +25503,11 @@
       <c r="AE236" t="n">
         <v>0.0836310526907089</v>
       </c>
+      <c r="AF236" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -24429,6 +25609,11 @@
       <c r="AE237" t="n">
         <v>0.1568777015001271</v>
       </c>
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -24530,6 +25715,11 @@
       <c r="AE238" t="n">
         <v>0.6497584541062802</v>
       </c>
+      <c r="AF238" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -24631,6 +25821,11 @@
       <c r="AE239" t="n">
         <v>0.06666666666666665</v>
       </c>
+      <c r="AF239" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -24732,6 +25927,11 @@
       <c r="AE240" t="n">
         <v>0.565374677002584</v>
       </c>
+      <c r="AF240" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -24833,6 +26033,11 @@
       <c r="AE241" t="n">
         <v>0.02589908749329046</v>
       </c>
+      <c r="AF241" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -24934,6 +26139,11 @@
       <c r="AE242" t="n">
         <v>0.8156288156288156</v>
       </c>
+      <c r="AF242" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -25035,6 +26245,11 @@
       <c r="AE243" t="n">
         <v>0.02180685358255447</v>
       </c>
+      <c r="AF243" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -25136,6 +26351,11 @@
       <c r="AE244" t="n">
         <v>0.8018593428429494</v>
       </c>
+      <c r="AF244" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -25237,6 +26457,11 @@
       <c r="AE245" t="n">
         <v>0.07171717171717171</v>
       </c>
+      <c r="AF245" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -25338,6 +26563,11 @@
       <c r="AE246" t="n">
         <v>0.6910052910052911</v>
       </c>
+      <c r="AF246" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -25439,6 +26669,11 @@
       <c r="AE247" t="n">
         <v>0.03042328042328041</v>
       </c>
+      <c r="AF247" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -25540,6 +26775,11 @@
       <c r="AE248" t="n">
         <v>0.7184789067142008</v>
       </c>
+      <c r="AF248" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -25641,6 +26881,11 @@
       <c r="AE249" t="n">
         <v>0.1005320788602522</v>
       </c>
+      <c r="AF249" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -25742,6 +26987,11 @@
       <c r="AE250" t="n">
         <v>0.02002935336268673</v>
       </c>
+      <c r="AF250" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -25843,6 +27093,11 @@
       <c r="AE251" t="n">
         <v>0.674074074074074</v>
       </c>
+      <c r="AF251" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -25944,6 +27199,11 @@
       <c r="AE252" t="n">
         <v>0.0487547892720306</v>
       </c>
+      <c r="AF252" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -26045,6 +27305,11 @@
       <c r="AE253" t="n">
         <v>0.7850815850815851</v>
       </c>
+      <c r="AF253" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -26146,6 +27411,11 @@
       <c r="AE254" t="n">
         <v>0.04834307992202726</v>
       </c>
+      <c r="AF254" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -26247,6 +27517,11 @@
       <c r="AE255" t="n">
         <v>0.7602272727272728</v>
       </c>
+      <c r="AF255" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -26348,6 +27623,11 @@
       <c r="AE256" t="n">
         <v>0.7349487850059931</v>
       </c>
+      <c r="AF256" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -26449,6 +27729,11 @@
       <c r="AE257" t="n">
         <v>0.04834307992202726</v>
       </c>
+      <c r="AF257" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -26550,6 +27835,11 @@
       <c r="AE258" t="n">
         <v>0.843993689429795</v>
       </c>
+      <c r="AF258" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -26651,6 +27941,11 @@
       <c r="AE259" t="n">
         <v>0.0226107226107226</v>
       </c>
+      <c r="AF259" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -26752,6 +28047,11 @@
       <c r="AE260" t="n">
         <v>0.06438279389099058</v>
       </c>
+      <c r="AF260" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -26853,6 +28153,11 @@
       <c r="AE261" t="n">
         <v>0.5182550972024655</v>
       </c>
+      <c r="AF261" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -26954,6 +28259,11 @@
       <c r="AE262" t="n">
         <v>0.07599067599067597</v>
       </c>
+      <c r="AF262" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -27055,6 +28365,11 @@
       <c r="AE263" t="n">
         <v>0.6095256424355732</v>
       </c>
+      <c r="AF263" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -27156,6 +28471,11 @@
       <c r="AE264" t="n">
         <v>0.06666666666666665</v>
       </c>
+      <c r="AF264" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -27257,6 +28577,11 @@
       <c r="AE265" t="n">
         <v>0.07599067599067597</v>
       </c>
+      <c r="AF265" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -27358,6 +28683,11 @@
       <c r="AE266" t="n">
         <v>0.796448087431694</v>
       </c>
+      <c r="AF266" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -27459,6 +28789,11 @@
       <c r="AE267" t="n">
         <v>0.8156288156288156</v>
       </c>
+      <c r="AF267" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -27560,6 +28895,11 @@
       <c r="AE268" t="n">
         <v>0.08753654970760234</v>
       </c>
+      <c r="AF268" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -27661,6 +29001,11 @@
       <c r="AE269" t="n">
         <v>0.782051282051282</v>
       </c>
+      <c r="AF269" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -27762,6 +29107,11 @@
       <c r="AE270" t="n">
         <v>0.03174603174603173</v>
       </c>
+      <c r="AF270" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -27863,6 +29213,11 @@
       <c r="AE271" t="n">
         <v>0.5606146051524429</v>
       </c>
+      <c r="AF271" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -27964,6 +29319,11 @@
       <c r="AE272" t="n">
         <v>0.572051042639278</v>
       </c>
+      <c r="AF272" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -28065,6 +29425,11 @@
       <c r="AE273" t="n">
         <v>0.1396011396011397</v>
       </c>
+      <c r="AF273" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -28166,6 +29531,11 @@
       <c r="AE274" t="n">
         <v>0.52805717162284</v>
       </c>
+      <c r="AF274" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -28267,6 +29637,11 @@
       <c r="AE275" t="n">
         <v>0.07171717171717171</v>
       </c>
+      <c r="AF275" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -28368,6 +29743,11 @@
       <c r="AE276" t="n">
         <v>0.6365253311999678</v>
       </c>
+      <c r="AF276" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -28469,6 +29849,11 @@
       <c r="AE277" t="n">
         <v>0.08298368298368296</v>
       </c>
+      <c r="AF277" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -28570,6 +29955,11 @@
       <c r="AE278" t="n">
         <v>0.6751547303271441</v>
       </c>
+      <c r="AF278" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -28671,6 +30061,11 @@
       <c r="AE279" t="n">
         <v>0.02595520421607381</v>
       </c>
+      <c r="AF279" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -28772,6 +30167,11 @@
       <c r="AE280" t="n">
         <v>0.7183706816059757</v>
       </c>
+      <c r="AF280" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -28873,6 +30273,11 @@
       <c r="AE281" t="n">
         <v>0.02871572871572871</v>
       </c>
+      <c r="AF281" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -28974,6 +30379,11 @@
       <c r="AE282" t="n">
         <v>0.6949039264828739</v>
       </c>
+      <c r="AF282" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -29075,6 +30485,11 @@
       <c r="AE283" t="n">
         <v>0.05921855921855922</v>
       </c>
+      <c r="AF283" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -29176,6 +30591,11 @@
       <c r="AE284" t="n">
         <v>0.5248902748902748</v>
       </c>
+      <c r="AF284" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -29277,6 +30697,11 @@
       <c r="AE285" t="n">
         <v>0.03435672514619882</v>
       </c>
+      <c r="AF285" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -29378,6 +30803,11 @@
       <c r="AE286" t="n">
         <v>0.652046783625731</v>
       </c>
+      <c r="AF286" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -29479,6 +30909,11 @@
       <c r="AE287" t="n">
         <v>0.06666666666666665</v>
       </c>
+      <c r="AF287" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -29580,6 +31015,11 @@
       <c r="AE288" t="n">
         <v>0.6777777777777778</v>
       </c>
+      <c r="AF288" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -29681,6 +31121,11 @@
       <c r="AE289" t="n">
         <v>0.07309630260449937</v>
       </c>
+      <c r="AF289" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -29782,6 +31227,11 @@
       <c r="AE290" t="n">
         <v>0.8382047071702244</v>
       </c>
+      <c r="AF290" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -29883,6 +31333,11 @@
       <c r="AE291" t="n">
         <v>0.8188034188034188</v>
       </c>
+      <c r="AF291" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -29984,6 +31439,11 @@
       <c r="AE292" t="n">
         <v>0.08512109077040426</v>
       </c>
+      <c r="AF292" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -30085,6 +31545,11 @@
       <c r="AE293" t="n">
         <v>0.04074825332431825</v>
       </c>
+      <c r="AF293" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -30186,6 +31651,11 @@
       <c r="AE294" t="n">
         <v>0.6714103265827404</v>
       </c>
+      <c r="AF294" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -30287,6 +31757,11 @@
       <c r="AE295" t="n">
         <v>0.7294277360066833</v>
       </c>
+      <c r="AF295" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -30388,6 +31863,11 @@
       <c r="AE296" t="n">
         <v>0.01737683346878753</v>
       </c>
+      <c r="AF296" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -30489,6 +31969,11 @@
       <c r="AE297" t="n">
         <v>0.05768506446472545</v>
       </c>
+      <c r="AF297" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -30590,6 +32075,11 @@
       <c r="AE298" t="n">
         <v>0.6915750915750916</v>
       </c>
+      <c r="AF298" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -30691,6 +32181,11 @@
       <c r="AE299" t="n">
         <v>0.6748388064177538</v>
       </c>
+      <c r="AF299" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -30792,6 +32287,11 @@
       <c r="AE300" t="n">
         <v>0.03435672514619882</v>
       </c>
+      <c r="AF300" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -30893,6 +32393,11 @@
       <c r="AE301" t="n">
         <v>0.7485107485107485</v>
       </c>
+      <c r="AF301" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -30994,6 +32499,11 @@
       <c r="AE302" t="n">
         <v>0.08205128205128205</v>
       </c>
+      <c r="AF302" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -31095,6 +32605,11 @@
       <c r="AE303" t="n">
         <v>0.7511457946240555</v>
       </c>
+      <c r="AF303" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -31196,6 +32711,11 @@
       <c r="AE304" t="n">
         <v>0.04311432175209261</v>
       </c>
+      <c r="AF304" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -31297,6 +32817,11 @@
       <c r="AE305" t="n">
         <v>0.03376496797549432</v>
       </c>
+      <c r="AF305" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -31398,6 +32923,11 @@
       <c r="AE306" t="n">
         <v>0.5873737373737373</v>
       </c>
+      <c r="AF306" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -31499,6 +33029,11 @@
       <c r="AE307" t="n">
         <v>0.09312169312169311</v>
       </c>
+      <c r="AF307" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -31600,6 +33135,11 @@
       <c r="AE308" t="n">
         <v>0.6984126984126984</v>
       </c>
+      <c r="AF308" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -31701,6 +33241,11 @@
       <c r="AE309" t="n">
         <v>0.7985848395684462</v>
       </c>
+      <c r="AF309" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -31802,6 +33347,11 @@
       <c r="AE310" t="n">
         <v>0.02501202501202502</v>
       </c>
+      <c r="AF310" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -31903,6 +33453,11 @@
       <c r="AE311" t="n">
         <v>0.6915750915750916</v>
       </c>
+      <c r="AF311" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -32004,6 +33559,11 @@
       <c r="AE312" t="n">
         <v>0.02007565399690095</v>
       </c>
+      <c r="AF312" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -32105,6 +33665,11 @@
       <c r="AE313" t="n">
         <v>0.6949039264828739</v>
       </c>
+      <c r="AF313" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -32206,6 +33771,11 @@
       <c r="AE314" t="n">
         <v>0.1343101343101343</v>
       </c>
+      <c r="AF314" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -32307,6 +33877,11 @@
       <c r="AE315" t="n">
         <v>0.6441102756892231</v>
       </c>
+      <c r="AF315" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -32408,6 +33983,11 @@
       <c r="AE316" t="n">
         <v>0.03571428571428573</v>
       </c>
+      <c r="AF316" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -32509,6 +34089,11 @@
       <c r="AE317" t="n">
         <v>0.6748388064177538</v>
       </c>
+      <c r="AF317" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -32610,6 +34195,11 @@
       <c r="AE318" t="n">
         <v>0.1989918178319117</v>
       </c>
+      <c r="AF318" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -32711,6 +34301,11 @@
       <c r="AE319" t="n">
         <v>0.03376496797549432</v>
       </c>
+      <c r="AF319" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -32812,6 +34407,11 @@
       <c r="AE320" t="n">
         <v>0.5226410621147464</v>
       </c>
+      <c r="AF320" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -32913,6 +34513,11 @@
       <c r="AE321" t="n">
         <v>0.08901972624798714</v>
       </c>
+      <c r="AF321" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -33018,6 +34623,11 @@
       <c r="AE322" t="n">
         <v>0.1726190476190476</v>
       </c>
+      <c r="AF322" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -33123,6 +34733,11 @@
       <c r="AE323" t="n">
         <v>0.08621553884711786</v>
       </c>
+      <c r="AF323" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -33228,6 +34843,11 @@
       <c r="AE324" t="n">
         <v>0.4575163398692811</v>
       </c>
+      <c r="AF324" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -33333,6 +34953,11 @@
       <c r="AE325" t="n">
         <v>0.6714103265827404</v>
       </c>
+      <c r="AF325" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -33438,6 +35063,11 @@
       <c r="AE326" t="n">
         <v>0.06438279389099058</v>
       </c>
+      <c r="AF326" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -33543,6 +35173,11 @@
       <c r="AE327" t="n">
         <v>0.5711042311661507</v>
       </c>
+      <c r="AF327" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -33648,6 +35283,11 @@
       <c r="AE328" t="n">
         <v>0.2763337893296853</v>
       </c>
+      <c r="AF328" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -33753,6 +35393,11 @@
       <c r="AE329" t="n">
         <v>0.3148148148148148</v>
       </c>
+      <c r="AF329" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -33858,6 +35503,11 @@
       <c r="AE330" t="n">
         <v>0.1346991788168259</v>
       </c>
+      <c r="AF330" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -33963,6 +35613,11 @@
       <c r="AE331" t="n">
         <v>0.5719814241486069</v>
       </c>
+      <c r="AF331" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -34068,6 +35723,11 @@
       <c r="AE332" t="n">
         <v>0.0489981785063752</v>
       </c>
+      <c r="AF332" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -34173,6 +35833,11 @@
       <c r="AE333" t="n">
         <v>0.6337248349632251</v>
       </c>
+      <c r="AF333" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -34278,6 +35943,11 @@
       <c r="AE334" t="n">
         <v>0.1487968860580326</v>
       </c>
+      <c r="AF334" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -34383,6 +36053,11 @@
       <c r="AE335" t="n">
         <v>0.5515176830966305</v>
       </c>
+      <c r="AF335" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -34488,6 +36163,11 @@
       <c r="AE336" t="n">
         <v>0.114983164983165</v>
       </c>
+      <c r="AF336" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -34593,6 +36273,11 @@
       <c r="AE337" t="n">
         <v>0.2185856798859895</v>
       </c>
+      <c r="AF337" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -34698,6 +36383,11 @@
       <c r="AE338" t="n">
         <v>0.1813131313131313</v>
       </c>
+      <c r="AF338" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -34803,6 +36493,11 @@
       <c r="AE339" t="n">
         <v>0.1816993464052288</v>
       </c>
+      <c r="AF339" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -34907,6 +36602,11 @@
       </c>
       <c r="AE340" t="n">
         <v>0.6693576288778688</v>
+      </c>
+      <c r="AF340" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
     </row>
   </sheetData>
